--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Clec11a-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Clec11a-Itgb1.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N2">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q2">
-        <v>1162.32886265993</v>
+        <v>765.549254765721</v>
       </c>
       <c r="R2">
-        <v>10460.95976393937</v>
+        <v>6889.94329289149</v>
       </c>
       <c r="S2">
-        <v>0.3139417221595958</v>
+        <v>0.2325341513887471</v>
       </c>
       <c r="T2">
-        <v>0.3139417221595958</v>
+        <v>0.2325341513887471</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q3">
         <v>1008.756034764354</v>
@@ -632,10 +632,10 @@
         <v>9078.804312879185</v>
       </c>
       <c r="S3">
-        <v>0.2724621378394373</v>
+        <v>0.3064077550098215</v>
       </c>
       <c r="T3">
-        <v>0.2724621378394372</v>
+        <v>0.3064077550098214</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q4">
         <v>1410.418666888908</v>
@@ -694,10 +694,10 @@
         <v>12693.76800200018</v>
       </c>
       <c r="S4">
-        <v>0.3809500731452582</v>
+        <v>0.4284120267457228</v>
       </c>
       <c r="T4">
-        <v>0.3809500731452581</v>
+        <v>0.4284120267457228</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,13 +720,13 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3351376666666666</v>
+        <v>0.3351376666666667</v>
       </c>
       <c r="H5">
         <v>1.005413</v>
       </c>
       <c r="I5">
-        <v>0.03264606685570878</v>
+        <v>0.03264606685570879</v>
       </c>
       <c r="J5">
         <v>0.03264606685570878</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N5">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q5">
-        <v>39.22604173983966</v>
+        <v>25.83560297437889</v>
       </c>
       <c r="R5">
-        <v>353.0343756585569</v>
+        <v>232.5204267694101</v>
       </c>
       <c r="S5">
-        <v>0.01059484238318569</v>
+        <v>0.007847515983935342</v>
       </c>
       <c r="T5">
-        <v>0.01059484238318569</v>
+        <v>0.007847515983935341</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,13 +782,13 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3351376666666666</v>
+        <v>0.3351376666666667</v>
       </c>
       <c r="H6">
         <v>1.005413</v>
       </c>
       <c r="I6">
-        <v>0.03264606685570878</v>
+        <v>0.03264606685570879</v>
       </c>
       <c r="J6">
         <v>0.03264606685570878</v>
@@ -806,22 +806,22 @@
         <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q6">
-        <v>34.04329669180622</v>
+        <v>34.04329669180623</v>
       </c>
       <c r="R6">
         <v>306.389670226256</v>
       </c>
       <c r="S6">
-        <v>0.009194997676438717</v>
+        <v>0.01034058756823829</v>
       </c>
       <c r="T6">
-        <v>0.009194997676438714</v>
+        <v>0.01034058756823828</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,13 +844,13 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.3351376666666666</v>
+        <v>0.3351376666666667</v>
       </c>
       <c r="H7">
         <v>1.005413</v>
       </c>
       <c r="I7">
-        <v>0.03264606685570878</v>
+        <v>0.03264606685570879</v>
       </c>
       <c r="J7">
         <v>0.03264606685570878</v>
@@ -868,22 +868,22 @@
         <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q7">
-        <v>47.59852678133155</v>
+        <v>47.59852678133156</v>
       </c>
       <c r="R7">
-        <v>428.386741031984</v>
+        <v>428.3867410319841</v>
       </c>
       <c r="S7">
-        <v>0.01285622679608437</v>
+        <v>0.01445796330353516</v>
       </c>
       <c r="T7">
-        <v>0.01285622679608437</v>
+        <v>0.01445796330353516</v>
       </c>
     </row>
   </sheetData>
